--- a/자유수강권/주산과암산(수강).xlsx
+++ b/자유수강권/주산과암산(수강).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="96">
   <si>
     <t>주야</t>
   </si>
@@ -209,6 +209,9 @@
   </si>
   <si>
     <t>김태림</t>
+  </si>
+  <si>
+    <t>이휘원</t>
   </si>
   <si>
     <t>정지현</t>
@@ -667,7 +670,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1469,7 +1472,7 @@
         <v>25</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>65</v>
@@ -1495,7 +1498,7 @@
         <v>25</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>66</v>
@@ -1518,10 +1521,10 @@
         <v>55</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>67</v>
@@ -1547,7 +1550,7 @@
         <v>31</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>68</v>
@@ -1570,13 +1573,13 @@
         <v>55</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>13</v>
@@ -1599,7 +1602,7 @@
         <v>44</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>71</v>
@@ -1625,7 +1628,7 @@
         <v>44</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>72</v>
@@ -1651,10 +1654,10 @@
         <v>44</v>
       </c>
       <c r="D38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>13</v>
@@ -1671,16 +1674,16 @@
         <v>8</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>13</v>
@@ -1697,13 +1700,13 @@
         <v>8</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>77</v>
@@ -1723,13 +1726,13 @@
         <v>8</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>78</v>
@@ -1749,13 +1752,13 @@
         <v>8</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>79</v>
@@ -1775,13 +1778,13 @@
         <v>8</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>80</v>
@@ -1801,13 +1804,13 @@
         <v>8</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>81</v>
@@ -1827,16 +1830,16 @@
         <v>8</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D45" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>13</v>
@@ -1853,13 +1856,13 @@
         <v>8</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>84</v>
@@ -1879,16 +1882,16 @@
         <v>8</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>13</v>
@@ -1905,13 +1908,13 @@
         <v>8</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>87</v>
@@ -1931,16 +1934,16 @@
         <v>8</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>13</v>
@@ -1957,16 +1960,16 @@
         <v>8</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>13</v>
@@ -1983,24 +1986,50 @@
         <v>8</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="13.5">
+      <c r="A52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E51" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H51" s="1" t="s">
+      <c r="E52" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" s="1" t="s">
         <v>13</v>
       </c>
     </row>
